--- a/Resultados_Experimento1/test.xlsx
+++ b/Resultados_Experimento1/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\Seminario\Codes\Datasets\MNIST_ORG\NN_Tests_DG\Resultados_Experimento1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEE4303-C837-4FB8-9B65-55D40F6B003B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C666453C-7EF0-4465-BFC3-52AC162F6F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -897,13 +897,14 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="45.28515625" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
